--- a/biology/Botanique/Jardin_botanique_Nikitski/Jardin_botanique_Nikitski.xlsx
+++ b/biology/Botanique/Jardin_botanique_Nikitski/Jardin_botanique_Nikitski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Jardin botanique Nikitski, ou jardin botanique de Nikita (en russe : Никитский ботанический сад, Nikitski botanitcheski sad), est un conservatoire et un jardin botanique situé près de Yalta, en Crimée, sur le littoral de la mer Noire. Fondé en 1812, il porte le nom de la localité dans laquelle il se trouve, Nikita.
